--- a/BotVal/BotVal/bin/Debug/tmp.xlsx
+++ b/BotVal/BotVal/bin/Debug/tmp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>First Valut</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>RUR</t>
-  </si>
-  <si>
-    <t>BTC</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,23 +443,6 @@
         <v>44117.664583333331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>10825.9</v>
-      </c>
-      <c r="D5">
-        <v>11965.47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44117.664583333331</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
